--- a/invoices/Company RVCA.xlsx
+++ b/invoices/Company RVCA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Excel_Examples\Expense_Report\invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{920545A7-FCC9-4223-9576-B2550D6D65DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A29796F-E6A5-4FF9-9ECC-B321E3DBC139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="60" windowWidth="29040" windowHeight="15990" xr2:uid="{BE60429A-02FA-4516-9613-ED20D2BFEB04}"/>
+    <workbookView xWindow="29580" yWindow="960" windowWidth="17070" windowHeight="15330" xr2:uid="{A52ED821-7ADA-4B69-BAE7-01EF673204E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Company RVCA-25" sheetId="2" r:id="rId1"/>
@@ -309,7 +309,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5F2350D-A4E6-40B5-BCBA-2CFE1DE4680C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1B1C5A7-E381-43CA-9870-2EFDDC49812E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -669,7 +669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C50742-2A0E-40A4-8166-FB31CEA555F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C90400-1376-40CD-B4EB-E0C33AE35993}">
   <sheetPr codeName="Sheet6">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="6">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="1"/>
@@ -1559,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="8">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="1"/>
@@ -1603,7 +1603,7 @@
         <v>6</v>
       </c>
       <c r="J16" s="9">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="1"/>
@@ -4245,7 +4245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7192DF4-FA0F-40D9-8162-D5302A89EC9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3C2B54-3413-4320-AC00-33842161D221}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/invoices/Company RVCA.xlsx
+++ b/invoices/Company RVCA.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Excel_Examples\Expense_Report\invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A29796F-E6A5-4FF9-9ECC-B321E3DBC139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4797D2B8-0A3C-468C-9324-5D25713F5911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="960" windowWidth="17070" windowHeight="15330" xr2:uid="{A52ED821-7ADA-4B69-BAE7-01EF673204E5}"/>
+    <workbookView xWindow="57480" yWindow="60" windowWidth="29040" windowHeight="15990" xr2:uid="{FDCD4B29-88BF-4254-9798-B450297314A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Company RVCA-25" sheetId="2" r:id="rId1"/>
@@ -309,7 +309,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1B1C5A7-E381-43CA-9870-2EFDDC49812E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF73A66-797F-4E3E-BE84-56D97904AF5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -669,9 +669,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C90400-1376-40CD-B4EB-E0C33AE35993}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A851242B-8ACF-4D07-9795-5465AB19AD1A}">
   <sheetPr codeName="Sheet6">
-    <tabColor theme="4" tint="0.79998168889431442"/>
+    <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:AJ84"/>
   <sheetViews>
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="6">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="1"/>
@@ -4245,8 +4245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3C2B54-3413-4320-AC00-33842161D221}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CE29BB-04C5-4C68-BCE3-0B5D60752277}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/invoices/Company RVCA.xlsx
+++ b/invoices/Company RVCA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Excel_Examples\Expense_Report\invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4797D2B8-0A3C-468C-9324-5D25713F5911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AED67EE7-6C4E-4138-AF6E-BE3024342F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="60" windowWidth="29040" windowHeight="15990" xr2:uid="{FDCD4B29-88BF-4254-9798-B450297314A9}"/>
+    <workbookView xWindow="57480" yWindow="60" windowWidth="29040" windowHeight="15990" xr2:uid="{52C6A8F7-E6BE-4900-934A-18550AE1D8DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Company RVCA-25" sheetId="2" r:id="rId1"/>
@@ -309,7 +309,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF73A66-797F-4E3E-BE84-56D97904AF5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB852891-59F7-4E54-909F-568D8C96907E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -669,14 +669,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A851242B-8ACF-4D07-9795-5465AB19AD1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A52042-929D-440C-857E-E4385692D84C}">
   <sheetPr codeName="Sheet6">
-    <tabColor theme="7" tint="0.59999389629810485"/>
+    <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:AJ84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="6">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="1"/>
@@ -4245,7 +4245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CE29BB-04C5-4C68-BCE3-0B5D60752277}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E87DA6-11AD-461E-A4A0-6F4230276793}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/invoices/Company RVCA.xlsx
+++ b/invoices/Company RVCA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Excel_Examples\Expense_Report\invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AED67EE7-6C4E-4138-AF6E-BE3024342F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBEC73C5-6BFC-418F-9732-6566E03E3371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="60" windowWidth="29040" windowHeight="15990" xr2:uid="{52C6A8F7-E6BE-4900-934A-18550AE1D8DA}"/>
+    <workbookView xWindow="29580" yWindow="885" windowWidth="21045" windowHeight="15495" xr2:uid="{16C5E81C-9B90-4082-85C2-587D929D407D}"/>
   </bookViews>
   <sheets>
     <sheet name="Company RVCA-25" sheetId="2" r:id="rId1"/>
@@ -294,22 +294,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>53976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>97367</xdr:rowOff>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB852891-59F7-4E54-909F-568D8C96907E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8778C31-3070-492B-AAE0-961CEB43FE0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -331,8 +331,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="742950"/>
-          <a:ext cx="2000250" cy="973667"/>
+          <a:off x="482600" y="911226"/>
+          <a:ext cx="2000250" cy="974725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -669,14 +669,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A52042-929D-440C-857E-E4385692D84C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718B9D27-AC20-4A85-898D-F6A80E65E11B}">
   <sheetPr codeName="Sheet6">
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:AJ84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="6">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="1"/>
@@ -1559,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="8">
-        <v>44134</v>
+        <v>44138</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="1"/>
@@ -1603,7 +1603,7 @@
         <v>6</v>
       </c>
       <c r="J16" s="9">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="1"/>
@@ -4240,12 +4240,13 @@
     <mergeCell ref="C45:J45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E87DA6-11AD-461E-A4A0-6F4230276793}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E5768C-F357-431A-BE71-33B597570E22}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
